--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1134482.396857714</v>
+        <v>-1137044.885734937</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13489160.3177087</v>
+        <v>13489160.31770871</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.8194726552475</v>
+        <v>370.8194726552474</v>
       </c>
       <c r="C11" t="n">
-        <v>64.21100237331513</v>
+        <v>353.3585227627743</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>331.3577619918747</v>
       </c>
       <c r="E11" t="n">
-        <v>370.0160010640287</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>394.9616767334783</v>
+        <v>394.9616767334782</v>
       </c>
       <c r="G11" t="n">
-        <v>399.0073566452203</v>
+        <v>399.0073566452202</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>29.66256076469284</v>
+        <v>29.66256076469275</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.27339277994272</v>
+        <v>97.27339277994263</v>
       </c>
       <c r="T11" t="n">
-        <v>192.003601131387</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>239.0808029506689</v>
+        <v>239.0808029506688</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>315.8378894619017</v>
       </c>
       <c r="W11" t="n">
-        <v>337.3265997091799</v>
+        <v>337.3265997091798</v>
       </c>
       <c r="X11" t="n">
-        <v>357.8167316702359</v>
+        <v>357.8167316702358</v>
       </c>
       <c r="Y11" t="n">
-        <v>374.3235696478205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>155.3324520903947</v>
+        <v>155.3324520903946</v>
       </c>
       <c r="D13" t="n">
-        <v>136.7011040099792</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>134.5195936383361</v>
+        <v>134.5195936383359</v>
       </c>
       <c r="F13" t="n">
-        <v>133.5066790146981</v>
+        <v>133.506679014698</v>
       </c>
       <c r="G13" t="n">
-        <v>35.05840050517986</v>
+        <v>154.111439250795</v>
       </c>
       <c r="H13" t="n">
-        <v>132.8406459060877</v>
+        <v>132.8406459060876</v>
       </c>
       <c r="I13" t="n">
-        <v>84.43805140160498</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.01778366181422</v>
+        <v>15.68703839319177</v>
       </c>
       <c r="S13" t="n">
-        <v>177.8546563232088</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6345802679361</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>274.2974691973797</v>
       </c>
       <c r="V13" t="n">
-        <v>240.2232743155949</v>
+        <v>240.2232743155948</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>274.6086293283578</v>
       </c>
       <c r="X13" t="n">
-        <v>213.795286380804</v>
+        <v>213.7952863808039</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.6702843438617</v>
+        <v>206.6702843438616</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>370.8194726552475</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>353.3585227627744</v>
+        <v>353.3585227627743</v>
       </c>
       <c r="D14" t="n">
-        <v>342.7686726124498</v>
+        <v>342.7686726124497</v>
       </c>
       <c r="E14" t="n">
-        <v>370.0160010640287</v>
+        <v>370.0160010640286</v>
       </c>
       <c r="F14" t="n">
-        <v>394.9616767334783</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>399.0073566452203</v>
+        <v>399.0073566452202</v>
       </c>
       <c r="H14" t="n">
-        <v>282.6933953790873</v>
+        <v>282.6933953790872</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>29.66256076469276</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>97.27339277994271</v>
+        <v>97.27339277994261</v>
       </c>
       <c r="T14" t="n">
-        <v>18.70674287208449</v>
+        <v>192.0036011313869</v>
       </c>
       <c r="U14" t="n">
-        <v>239.0808029506689</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>315.8378894619017</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.3265997091798</v>
       </c>
       <c r="X14" t="n">
-        <v>357.8167316702359</v>
+        <v>357.8167316702358</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>148.7380441443171</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>167.9176111737042</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>155.3324520903947</v>
+        <v>155.3324520903946</v>
       </c>
       <c r="D16" t="n">
-        <v>136.7011040099792</v>
+        <v>136.7011040099791</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>134.5195936383359</v>
       </c>
       <c r="F16" t="n">
-        <v>133.5066790146981</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>154.1114392507951</v>
+        <v>154.111439250795</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>177.8546563232088</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>145.3332593039984</v>
       </c>
       <c r="U16" t="n">
-        <v>274.2974691973798</v>
+        <v>274.2974691973797</v>
       </c>
       <c r="V16" t="n">
-        <v>240.2232743155949</v>
+        <v>240.2232743155948</v>
       </c>
       <c r="W16" t="n">
-        <v>75.18253575908</v>
+        <v>274.6086293283578</v>
       </c>
       <c r="X16" t="n">
-        <v>213.795286380804</v>
+        <v>213.7952863808039</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.6702843438617</v>
+        <v>206.6702843438616</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D17" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G17" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H17" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007088</v>
+        <v>11.5030415600708</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U17" t="n">
-        <v>153.3104517307974</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V17" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W17" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X17" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383225</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052278</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010731</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846412</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482629</v>
+        <v>47.7363277948262</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092317</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621573</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T19" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V19" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W19" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D20" t="n">
         <v>256.998321392578</v>
@@ -2090,13 +2090,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G20" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U20" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V20" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W20" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T22" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V22" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W22" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X22" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y22" t="n">
         <v>120.8999331239898</v>
@@ -2318,7 +2318,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D23" t="n">
         <v>256.998321392578</v>
@@ -2327,13 +2327,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G23" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U23" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V23" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W23" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V25" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W25" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y25" t="n">
         <v>120.8999331239898</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>296.9634904436087</v>
+        <v>296.9634904436088</v>
       </c>
       <c r="C26" t="n">
-        <v>279.5025405511357</v>
+        <v>279.5025405511358</v>
       </c>
       <c r="D26" t="n">
-        <v>268.9126904008111</v>
+        <v>268.9126904008112</v>
       </c>
       <c r="E26" t="n">
         <v>296.16001885239</v>
       </c>
       <c r="F26" t="n">
-        <v>321.1056945218396</v>
+        <v>321.1056945218397</v>
       </c>
       <c r="G26" t="n">
-        <v>325.1513744335816</v>
+        <v>325.1513744335817</v>
       </c>
       <c r="H26" t="n">
         <v>208.8374131674487</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>23.41741056830402</v>
+        <v>23.41741056830406</v>
       </c>
       <c r="T26" t="n">
-        <v>118.1476189197483</v>
+        <v>118.1476189197484</v>
       </c>
       <c r="U26" t="n">
         <v>165.2248207390302</v>
@@ -2618,7 +2618,7 @@
         <v>263.4706174975412</v>
       </c>
       <c r="X26" t="n">
-        <v>283.9607494585972</v>
+        <v>283.9607494585973</v>
       </c>
       <c r="Y26" t="n">
         <v>300.4675874361818</v>
@@ -2649,7 +2649,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851063</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
         <v>18.81721868247745</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.06162896206547</v>
+        <v>94.06162896206551</v>
       </c>
       <c r="C28" t="n">
-        <v>81.47646987875601</v>
+        <v>81.47646987875605</v>
       </c>
       <c r="D28" t="n">
-        <v>62.84512179834053</v>
+        <v>62.84512179834057</v>
       </c>
       <c r="E28" t="n">
-        <v>60.66361142669734</v>
+        <v>60.66361142669739</v>
       </c>
       <c r="F28" t="n">
-        <v>59.65069680305942</v>
+        <v>59.65069680305946</v>
       </c>
       <c r="G28" t="n">
-        <v>80.2554570391564</v>
+        <v>80.25545703915644</v>
       </c>
       <c r="H28" t="n">
-        <v>58.98466369444895</v>
+        <v>58.984663694449</v>
       </c>
       <c r="I28" t="n">
-        <v>10.58206918996628</v>
+        <v>10.58206918996633</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.161801450175517</v>
+        <v>3.16180145017556</v>
       </c>
       <c r="S28" t="n">
         <v>103.9986741115701</v>
@@ -2767,7 +2767,7 @@
         <v>133.7785980562974</v>
       </c>
       <c r="U28" t="n">
-        <v>200.441486985741</v>
+        <v>200.4414869857411</v>
       </c>
       <c r="V28" t="n">
         <v>166.3672921039562</v>
@@ -2776,7 +2776,7 @@
         <v>200.7526471167192</v>
       </c>
       <c r="X28" t="n">
-        <v>139.9393041691653</v>
+        <v>139.9393041691654</v>
       </c>
       <c r="Y28" t="n">
         <v>132.814302132223</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>296.9634904436087</v>
+        <v>296.9634904436088</v>
       </c>
       <c r="C29" t="n">
-        <v>279.5025405511357</v>
+        <v>279.5025405511358</v>
       </c>
       <c r="D29" t="n">
-        <v>268.9126904008111</v>
+        <v>268.9126904008112</v>
       </c>
       <c r="E29" t="n">
         <v>296.16001885239</v>
       </c>
       <c r="F29" t="n">
-        <v>321.1056945218396</v>
+        <v>321.1056945218397</v>
       </c>
       <c r="G29" t="n">
-        <v>325.1513744335816</v>
+        <v>325.1513744335817</v>
       </c>
       <c r="H29" t="n">
-        <v>208.8374131674486</v>
+        <v>208.8374131674487</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>23.41741056830402</v>
+        <v>23.41741056830406</v>
       </c>
       <c r="T29" t="n">
-        <v>118.1476189197483</v>
+        <v>118.1476189197484</v>
       </c>
       <c r="U29" t="n">
         <v>165.2248207390302</v>
@@ -2855,7 +2855,7 @@
         <v>263.4706174975412</v>
       </c>
       <c r="X29" t="n">
-        <v>283.9607494585972</v>
+        <v>283.9607494585973</v>
       </c>
       <c r="Y29" t="n">
         <v>300.4675874361818</v>
@@ -2874,7 +2874,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646382</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2883,7 +2883,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657075</v>
       </c>
       <c r="H30" t="n">
         <v>89.59687541851116</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.06162896206547</v>
+        <v>94.06162896206551</v>
       </c>
       <c r="C31" t="n">
-        <v>81.47646987875601</v>
+        <v>81.47646987875605</v>
       </c>
       <c r="D31" t="n">
-        <v>62.84512179834053</v>
+        <v>62.84512179834057</v>
       </c>
       <c r="E31" t="n">
-        <v>60.66361142669734</v>
+        <v>60.66361142669739</v>
       </c>
       <c r="F31" t="n">
-        <v>59.65069680305942</v>
+        <v>59.65069680305946</v>
       </c>
       <c r="G31" t="n">
-        <v>80.2554570391564</v>
+        <v>80.25545703915644</v>
       </c>
       <c r="H31" t="n">
-        <v>58.98466369444895</v>
+        <v>58.984663694449</v>
       </c>
       <c r="I31" t="n">
-        <v>10.58206918996628</v>
+        <v>10.58206918996633</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.161801450175517</v>
+        <v>3.16180145017556</v>
       </c>
       <c r="S31" t="n">
         <v>103.9986741115701</v>
@@ -3004,7 +3004,7 @@
         <v>133.7785980562974</v>
       </c>
       <c r="U31" t="n">
-        <v>200.441486985741</v>
+        <v>200.4414869857411</v>
       </c>
       <c r="V31" t="n">
         <v>166.3672921039562</v>
@@ -3013,7 +3013,7 @@
         <v>200.7526471167192</v>
       </c>
       <c r="X31" t="n">
-        <v>139.9393041691653</v>
+        <v>139.9393041691654</v>
       </c>
       <c r="Y31" t="n">
         <v>132.814302132223</v>
@@ -3120,7 +3120,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657075</v>
       </c>
       <c r="H33" t="n">
         <v>89.59687541851116</v>
@@ -3165,7 +3165,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494248</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,13 +3323,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3512,13 +3512,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
-        <v>190.7165703189221</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U42" t="n">
         <v>225.7871683969286</v>
@@ -4071,7 +4071,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I45" t="n">
         <v>18.81721868247745</v>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1337.076356412725</v>
+        <v>1590.095832490811</v>
       </c>
       <c r="C11" t="n">
-        <v>1272.21675805584</v>
+        <v>1233.168031720331</v>
       </c>
       <c r="D11" t="n">
-        <v>1272.21675805584</v>
+        <v>898.4632216275281</v>
       </c>
       <c r="E11" t="n">
-        <v>898.4632216275285</v>
+        <v>898.4632216275281</v>
       </c>
       <c r="F11" t="n">
-        <v>499.5120330078533</v>
+        <v>499.5120330078531</v>
       </c>
       <c r="G11" t="n">
-        <v>96.47429902278228</v>
+        <v>96.47429902278213</v>
       </c>
       <c r="H11" t="n">
-        <v>96.47429902278228</v>
+        <v>96.47429902278213</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810562</v>
@@ -5048,43 +5048,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3227.349869306199</v>
+        <v>3227.349869306198</v>
       </c>
       <c r="T11" t="n">
-        <v>3033.406837860353</v>
+        <v>3227.349869306198</v>
       </c>
       <c r="U11" t="n">
-        <v>2791.911077304122</v>
+        <v>2985.854108749967</v>
       </c>
       <c r="V11" t="n">
-        <v>2791.911077304122</v>
+        <v>2666.825937576329</v>
       </c>
       <c r="W11" t="n">
-        <v>2451.177138203941</v>
+        <v>2326.091998476147</v>
       </c>
       <c r="X11" t="n">
-        <v>2089.746096112793</v>
+        <v>1964.660956385</v>
       </c>
       <c r="Y11" t="n">
-        <v>1711.641480306914</v>
+        <v>1964.660956385</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>887.1150725597399</v>
+        <v>783.9977829981543</v>
       </c>
       <c r="C13" t="n">
-        <v>730.2136058017654</v>
+        <v>627.0963162401799</v>
       </c>
       <c r="D13" t="n">
-        <v>592.1316825593622</v>
+        <v>627.0963162401799</v>
       </c>
       <c r="E13" t="n">
-        <v>456.2533051469014</v>
+        <v>491.2179388277193</v>
       </c>
       <c r="F13" t="n">
-        <v>321.3980738189234</v>
+        <v>356.3627074997416</v>
       </c>
       <c r="G13" t="n">
-        <v>285.9855480561154</v>
+        <v>200.6945870443931</v>
       </c>
       <c r="H13" t="n">
-        <v>151.8030774439056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>123.4299741972698</v>
       </c>
       <c r="K13" t="n">
-        <v>339.2123824642969</v>
+        <v>339.2123824642971</v>
       </c>
       <c r="L13" t="n">
-        <v>667.5674062309438</v>
+        <v>667.567406230944</v>
       </c>
       <c r="M13" t="n">
         <v>1023.519677148644</v>
@@ -5212,7 +5212,7 @@
         <v>1376.723279172659</v>
       </c>
       <c r="O13" t="n">
-        <v>1687.848103411223</v>
+        <v>1687.848103411224</v>
       </c>
       <c r="P13" t="n">
         <v>1932.250829163034</v>
@@ -5221,28 +5221,28 @@
         <v>2021.656350633699</v>
       </c>
       <c r="R13" t="n">
-        <v>1943.860609561159</v>
+        <v>2005.810857307243</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.209441557918</v>
+        <v>2005.810857307243</v>
       </c>
       <c r="T13" t="n">
-        <v>1554.477542297377</v>
+        <v>2005.810857307243</v>
       </c>
       <c r="U13" t="n">
-        <v>1554.477542297377</v>
+        <v>1728.742706602819</v>
       </c>
       <c r="V13" t="n">
-        <v>1311.827770261423</v>
+        <v>1486.092934566865</v>
       </c>
       <c r="W13" t="n">
-        <v>1311.827770261423</v>
+        <v>1208.710480699837</v>
       </c>
       <c r="X13" t="n">
-        <v>1095.872935533338</v>
+        <v>992.7556459717518</v>
       </c>
       <c r="Y13" t="n">
-        <v>887.1150725597399</v>
+        <v>783.9977829981543</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2230.962242893839</v>
+        <v>1861.973236864762</v>
       </c>
       <c r="C14" t="n">
-        <v>1874.03444212336</v>
+        <v>1505.045436094283</v>
       </c>
       <c r="D14" t="n">
-        <v>1527.803459686542</v>
+        <v>1158.814453657465</v>
       </c>
       <c r="E14" t="n">
-        <v>1154.04992325823</v>
+        <v>785.0609172291533</v>
       </c>
       <c r="F14" t="n">
-        <v>755.0987346385548</v>
+        <v>785.0609172291533</v>
       </c>
       <c r="G14" t="n">
-        <v>352.0610006534838</v>
+        <v>382.0231832440823</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>96.47429902278202</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3227.349869306199</v>
+        <v>3227.349869306198</v>
       </c>
       <c r="T14" t="n">
-        <v>3208.454169435407</v>
+        <v>3033.406837860352</v>
       </c>
       <c r="U14" t="n">
-        <v>2966.958408879176</v>
+        <v>3033.406837860352</v>
       </c>
       <c r="V14" t="n">
-        <v>2966.958408879176</v>
+        <v>2714.378666686714</v>
       </c>
       <c r="W14" t="n">
-        <v>2966.958408879176</v>
+        <v>2373.644727586533</v>
       </c>
       <c r="X14" t="n">
-        <v>2605.527366788029</v>
+        <v>2012.213685495386</v>
       </c>
       <c r="Y14" t="n">
-        <v>2605.527366788029</v>
+        <v>1861.973236864762</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,31 +5373,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>652.0188582158878</v>
+        <v>653.04200430037</v>
       </c>
       <c r="C16" t="n">
-        <v>495.1173914579133</v>
+        <v>496.1405375423956</v>
       </c>
       <c r="D16" t="n">
-        <v>357.03546821551</v>
+        <v>358.0586142999924</v>
       </c>
       <c r="E16" t="n">
-        <v>357.03546821551</v>
+        <v>222.1802368875319</v>
       </c>
       <c r="F16" t="n">
-        <v>222.180236887532</v>
+        <v>222.1802368875319</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
         <v>123.4299741972698</v>
       </c>
       <c r="K16" t="n">
-        <v>339.212382464297</v>
+        <v>339.2123824642971</v>
       </c>
       <c r="L16" t="n">
-        <v>667.5674062309439</v>
+        <v>667.5674062309441</v>
       </c>
       <c r="M16" t="n">
         <v>1023.519677148644</v>
@@ -5455,31 +5455,31 @@
         <v>1932.250829163034</v>
       </c>
       <c r="Q16" t="n">
-        <v>2021.656350633699</v>
+        <v>2021.6563506337</v>
       </c>
       <c r="R16" t="n">
-        <v>2021.656350633699</v>
+        <v>2021.6563506337</v>
       </c>
       <c r="S16" t="n">
-        <v>1842.005182630458</v>
+        <v>2021.6563506337</v>
       </c>
       <c r="T16" t="n">
-        <v>1842.005182630458</v>
+        <v>1874.855078609459</v>
       </c>
       <c r="U16" t="n">
-        <v>1564.937031926034</v>
+        <v>1597.786927905035</v>
       </c>
       <c r="V16" t="n">
-        <v>1322.28725989008</v>
+        <v>1355.13715586908</v>
       </c>
       <c r="W16" t="n">
-        <v>1246.345304577878</v>
+        <v>1077.754702002052</v>
       </c>
       <c r="X16" t="n">
-        <v>1030.390469849793</v>
+        <v>861.7998672739675</v>
       </c>
       <c r="Y16" t="n">
-        <v>821.632606876195</v>
+        <v>653.04200430037</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C17" t="n">
         <v>1440.850850103805</v>
@@ -5501,64 +5501,64 @@
         <v>894.1397680464972</v>
       </c>
       <c r="F17" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G17" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X17" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,34 +5610,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170918</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630284</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245361</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F19" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G19" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>67.83109325226762</v>
+        <v>67.83109325226768</v>
       </c>
       <c r="J19" t="n">
-        <v>79.65384678970707</v>
+        <v>155.2189959588238</v>
       </c>
       <c r="K19" t="n">
-        <v>177.9647010573775</v>
+        <v>350.2377232523181</v>
       </c>
       <c r="L19" t="n">
-        <v>430.3824180055586</v>
+        <v>602.6554402004994</v>
       </c>
       <c r="M19" t="n">
-        <v>673.3800484738749</v>
+        <v>770.0879214996971</v>
       </c>
       <c r="N19" t="n">
-        <v>941.3967585295463</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O19" t="n">
-        <v>1176.02298077356</v>
+        <v>1176.022980773558</v>
       </c>
       <c r="P19" t="n">
-        <v>1371.681856552143</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q19" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S19" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T19" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U19" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304657</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673485</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431747</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734881</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C20" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D20" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G20" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U20" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V20" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y20" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,31 +5847,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
         <v>1109.759191501176</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.2593958170925</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F22" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G22" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>67.83109325226762</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>155.2189959588254</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K22" t="n">
-        <v>350.2377232523197</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L22" t="n">
-        <v>602.6554402005008</v>
+        <v>505.9475671746759</v>
       </c>
       <c r="M22" t="n">
-        <v>866.7957945255225</v>
+        <v>770.0879214996976</v>
       </c>
       <c r="N22" t="n">
-        <v>1134.812504581194</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O22" t="n">
-        <v>1272.730853799384</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P22" t="n">
-        <v>1468.389729577966</v>
+        <v>1468.389729577965</v>
       </c>
       <c r="Q22" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T22" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V22" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="23">
@@ -5972,25 +5972,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F23" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218326</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -5999,7 +5999,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939507</v>
@@ -6008,25 +6008,25 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T23" t="n">
         <v>3206.680274668174</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V23" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X23" t="n">
         <v>2290.53823536262</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387291</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170925</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226759</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>79.65384678970702</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K25" t="n">
-        <v>274.6725740832013</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L25" t="n">
-        <v>527.0902910313823</v>
+        <v>611.320482082977</v>
       </c>
       <c r="M25" t="n">
-        <v>791.230645356404</v>
+        <v>875.4608364079987</v>
       </c>
       <c r="N25" t="n">
-        <v>1059.247355412075</v>
+        <v>1046.769673437846</v>
       </c>
       <c r="O25" t="n">
-        <v>1272.730853799384</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P25" t="n">
-        <v>1371.681856552143</v>
+        <v>1380.346898434618</v>
       </c>
       <c r="Q25" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1504.462921287734</v>
       </c>
       <c r="D26" t="n">
-        <v>1232.833941084894</v>
+        <v>1232.833941084895</v>
       </c>
       <c r="E26" t="n">
-        <v>933.682406890561</v>
+        <v>933.6824068905612</v>
       </c>
       <c r="F26" t="n">
         <v>609.3332205048646</v>
       </c>
       <c r="G26" t="n">
-        <v>280.8974887537717</v>
+        <v>280.8974887537718</v>
       </c>
       <c r="H26" t="n">
         <v>69.95060676644984</v>
@@ -6227,22 +6227,22 @@
         <v>258.8297377254752</v>
       </c>
       <c r="K26" t="n">
-        <v>677.5617591229948</v>
+        <v>592.6491114153216</v>
       </c>
       <c r="L26" t="n">
-        <v>1128.595972371403</v>
+        <v>1043.68332466373</v>
       </c>
       <c r="M26" t="n">
-        <v>1662.127877043328</v>
+        <v>1577.215229335654</v>
       </c>
       <c r="N26" t="n">
-        <v>2292.480072773492</v>
+        <v>2123.994046394437</v>
       </c>
       <c r="O26" t="n">
-        <v>2795.452543652829</v>
+        <v>2711.879164981447</v>
       </c>
       <c r="P26" t="n">
-        <v>3190.226910010007</v>
+        <v>3106.653531338624</v>
       </c>
       <c r="Q26" t="n">
         <v>3438.513271765689</v>
@@ -6257,19 +6257,19 @@
         <v>3354.535359041631</v>
       </c>
       <c r="U26" t="n">
-        <v>3187.641600719378</v>
+        <v>3187.641600719379</v>
       </c>
       <c r="V26" t="n">
-        <v>2943.215431779718</v>
+        <v>2943.215431779719</v>
       </c>
       <c r="W26" t="n">
-        <v>2677.083494913515</v>
+        <v>2677.083494913516</v>
       </c>
       <c r="X26" t="n">
-        <v>2390.254455056346</v>
+        <v>2390.254455056347</v>
       </c>
       <c r="Y26" t="n">
-        <v>2086.751841484445</v>
+        <v>2086.751841484446</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>944.9823448153745</v>
+        <v>944.9823448153751</v>
       </c>
       <c r="C27" t="n">
-        <v>770.5293155342475</v>
+        <v>770.5293155342481</v>
       </c>
       <c r="D27" t="n">
-        <v>621.5949058729963</v>
+        <v>621.5949058729968</v>
       </c>
       <c r="E27" t="n">
-        <v>462.3574508675408</v>
+        <v>462.3574508675413</v>
       </c>
       <c r="F27" t="n">
-        <v>315.8228928944258</v>
+        <v>315.8228928944263</v>
       </c>
       <c r="G27" t="n">
-        <v>179.4597927270439</v>
+        <v>179.4597927270444</v>
       </c>
       <c r="H27" t="n">
         <v>88.9578983649119</v>
@@ -6303,34 +6303,34 @@
         <v>69.95060676644984</v>
       </c>
       <c r="J27" t="n">
-        <v>163.6278762570671</v>
+        <v>163.6278762570681</v>
       </c>
       <c r="K27" t="n">
-        <v>401.8920752374142</v>
+        <v>401.8920752374152</v>
       </c>
       <c r="L27" t="n">
-        <v>768.5902355500795</v>
+        <v>768.5902355500805</v>
       </c>
       <c r="M27" t="n">
-        <v>1215.866560772395</v>
+        <v>1215.866560772396</v>
       </c>
       <c r="N27" t="n">
-        <v>1689.38960432685</v>
+        <v>1689.389604326851</v>
       </c>
       <c r="O27" t="n">
-        <v>2100.350883744904</v>
+        <v>2100.350883744905</v>
       </c>
       <c r="P27" t="n">
-        <v>2410.850475221007</v>
+        <v>2410.850475221008</v>
       </c>
       <c r="Q27" t="n">
-        <v>2568.492032867607</v>
+        <v>2568.492032867608</v>
       </c>
       <c r="R27" t="n">
-        <v>2568.347679460122</v>
+        <v>2568.347679460123</v>
       </c>
       <c r="S27" t="n">
-        <v>2438.909792953602</v>
+        <v>2438.909792953603</v>
       </c>
       <c r="T27" t="n">
         <v>2246.266792631458</v>
@@ -6342,10 +6342,10 @@
         <v>1783.046837534131</v>
       </c>
       <c r="W27" t="n">
-        <v>1528.809480805929</v>
+        <v>1528.80948080593</v>
       </c>
       <c r="X27" t="n">
-        <v>1320.957980600396</v>
+        <v>1320.957980600397</v>
       </c>
       <c r="Y27" t="n">
         <v>1113.197681835443</v>
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>488.5951419486973</v>
+        <v>488.5951419486976</v>
       </c>
       <c r="C28" t="n">
-        <v>406.2956774247014</v>
+        <v>406.2956774247016</v>
       </c>
       <c r="D28" t="n">
-        <v>342.8157564162765</v>
+        <v>342.8157564162768</v>
       </c>
       <c r="E28" t="n">
-        <v>281.5393812377944</v>
+        <v>281.5393812377945</v>
       </c>
       <c r="F28" t="n">
-        <v>221.2861521437949</v>
+        <v>221.2861521437951</v>
       </c>
       <c r="G28" t="n">
-        <v>140.2200339224248</v>
+        <v>140.2200339224249</v>
       </c>
       <c r="H28" t="n">
-        <v>80.63956554419356</v>
+        <v>80.6395655441936</v>
       </c>
       <c r="I28" t="n">
         <v>69.95060676644984</v>
       </c>
       <c r="J28" t="n">
-        <v>166.6860080115624</v>
+        <v>174.152554552363</v>
       </c>
       <c r="K28" t="n">
-        <v>349.9095099869058</v>
+        <v>357.3760565277064</v>
       </c>
       <c r="L28" t="n">
-        <v>597.998548157736</v>
+        <v>597.9985481577366</v>
       </c>
       <c r="M28" t="n">
-        <v>850.3436771646068</v>
+        <v>850.3436771646075</v>
       </c>
       <c r="N28" t="n">
-        <v>1106.565161902127</v>
+        <v>1106.565161902128</v>
       </c>
       <c r="O28" t="n">
-        <v>1329.39615882799</v>
+        <v>1329.396158827991</v>
       </c>
       <c r="P28" t="n">
-        <v>1513.259809288422</v>
+        <v>1513.259809288423</v>
       </c>
       <c r="Q28" t="n">
         <v>1675.78275314861</v>
       </c>
       <c r="R28" t="n">
-        <v>1672.589014310048</v>
+        <v>1672.589014310049</v>
       </c>
       <c r="S28" t="n">
         <v>1567.539848540786</v>
@@ -6415,19 +6415,19 @@
         <v>1432.409951514223</v>
       </c>
       <c r="U28" t="n">
-        <v>1229.943803043777</v>
+        <v>1229.943803043778</v>
       </c>
       <c r="V28" t="n">
-        <v>1061.896033241801</v>
+        <v>1061.896033241802</v>
       </c>
       <c r="W28" t="n">
-        <v>859.1155816087517</v>
+        <v>859.1155816087521</v>
       </c>
       <c r="X28" t="n">
-        <v>717.7627491146452</v>
+        <v>717.7627491146457</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.6068883750261</v>
+        <v>583.6068883750264</v>
       </c>
     </row>
     <row r="29">
@@ -6437,61 +6437,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1786.788719824234</v>
+        <v>1786.788719824235</v>
       </c>
       <c r="C29" t="n">
         <v>1504.462921287734</v>
       </c>
       <c r="D29" t="n">
-        <v>1232.833941084894</v>
+        <v>1232.833941084895</v>
       </c>
       <c r="E29" t="n">
-        <v>933.6824068905609</v>
+        <v>933.6824068905612</v>
       </c>
       <c r="F29" t="n">
-        <v>609.3332205048642</v>
+        <v>609.3332205048646</v>
       </c>
       <c r="G29" t="n">
-        <v>280.8974887537717</v>
+        <v>280.8974887537718</v>
       </c>
       <c r="H29" t="n">
-        <v>69.95060676644984</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="I29" t="n">
-        <v>113.7020939989262</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="J29" t="n">
-        <v>342.4031163968579</v>
+        <v>258.8297377254752</v>
       </c>
       <c r="K29" t="n">
-        <v>676.2224900867043</v>
+        <v>592.6491114153216</v>
       </c>
       <c r="L29" t="n">
-        <v>1127.256703335113</v>
+        <v>1043.68332466373</v>
       </c>
       <c r="M29" t="n">
-        <v>1660.788608007037</v>
+        <v>1577.215229335654</v>
       </c>
       <c r="N29" t="n">
-        <v>2207.567425065819</v>
+        <v>2123.994046394437</v>
       </c>
       <c r="O29" t="n">
-        <v>2710.539895945156</v>
+        <v>2626.966517273774</v>
       </c>
       <c r="P29" t="n">
-        <v>3105.314262302334</v>
+        <v>3021.740883630951</v>
       </c>
       <c r="Q29" t="n">
-        <v>3438.513271765689</v>
+        <v>3354.939893094307</v>
       </c>
       <c r="R29" t="n">
-        <v>3497.530338322492</v>
+        <v>3497.530338322493</v>
       </c>
       <c r="S29" t="n">
-        <v>3473.876388253498</v>
+        <v>3473.876388253499</v>
       </c>
       <c r="T29" t="n">
-        <v>3354.535359041631</v>
+        <v>3354.535359041632</v>
       </c>
       <c r="U29" t="n">
         <v>3187.641600719378</v>
@@ -6522,22 +6522,22 @@
         <v>770.5293155342475</v>
       </c>
       <c r="D30" t="n">
-        <v>621.5949058729968</v>
+        <v>621.5949058729963</v>
       </c>
       <c r="E30" t="n">
-        <v>462.3574508675413</v>
+        <v>462.3574508675408</v>
       </c>
       <c r="F30" t="n">
-        <v>315.8228928944263</v>
+        <v>315.8228928944258</v>
       </c>
       <c r="G30" t="n">
         <v>179.4597927270444</v>
       </c>
       <c r="H30" t="n">
-        <v>88.9578983649119</v>
+        <v>88.95789836491193</v>
       </c>
       <c r="I30" t="n">
-        <v>69.95060676644984</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="J30" t="n">
         <v>163.6278762570671</v>
@@ -6546,7 +6546,7 @@
         <v>401.8920752374142</v>
       </c>
       <c r="L30" t="n">
-        <v>768.5902355500795</v>
+        <v>768.5902355500796</v>
       </c>
       <c r="M30" t="n">
         <v>1215.866560772395</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>488.5951419486973</v>
+        <v>488.5951419486976</v>
       </c>
       <c r="C31" t="n">
-        <v>406.2956774247014</v>
+        <v>406.2956774247016</v>
       </c>
       <c r="D31" t="n">
-        <v>342.8157564162765</v>
+        <v>342.8157564162768</v>
       </c>
       <c r="E31" t="n">
-        <v>281.5393812377944</v>
+        <v>281.5393812377945</v>
       </c>
       <c r="F31" t="n">
-        <v>221.2861521437949</v>
+        <v>221.2861521437951</v>
       </c>
       <c r="G31" t="n">
-        <v>140.2200339224248</v>
+        <v>140.2200339224249</v>
       </c>
       <c r="H31" t="n">
-        <v>80.63956554419356</v>
+        <v>80.63956554419362</v>
       </c>
       <c r="I31" t="n">
-        <v>69.95060676644984</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="J31" t="n">
         <v>166.6860080115624</v>
       </c>
       <c r="K31" t="n">
-        <v>422.0655853216796</v>
+        <v>349.9095099869057</v>
       </c>
       <c r="L31" t="n">
-        <v>662.6880769517099</v>
+        <v>590.532001616936</v>
       </c>
       <c r="M31" t="n">
-        <v>915.0332059585808</v>
+        <v>842.8771306238068</v>
       </c>
       <c r="N31" t="n">
-        <v>1171.254690696101</v>
+        <v>1099.098615361327</v>
       </c>
       <c r="O31" t="n">
-        <v>1394.085687621964</v>
+        <v>1394.085687621965</v>
       </c>
       <c r="P31" t="n">
         <v>1577.949338082396</v>
@@ -6643,7 +6643,7 @@
         <v>1675.78275314861</v>
       </c>
       <c r="R31" t="n">
-        <v>1672.589014310048</v>
+        <v>1672.589014310049</v>
       </c>
       <c r="S31" t="n">
         <v>1567.539848540786</v>
@@ -6652,19 +6652,19 @@
         <v>1432.409951514223</v>
       </c>
       <c r="U31" t="n">
-        <v>1229.943803043777</v>
+        <v>1229.943803043778</v>
       </c>
       <c r="V31" t="n">
-        <v>1061.896033241801</v>
+        <v>1061.896033241802</v>
       </c>
       <c r="W31" t="n">
-        <v>859.1155816087517</v>
+        <v>859.1155816087521</v>
       </c>
       <c r="X31" t="n">
-        <v>717.7627491146452</v>
+        <v>717.7627491146457</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.6068883750261</v>
+        <v>583.6068883750264</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1786.788719824234</v>
+        <v>1786.788719824235</v>
       </c>
       <c r="C32" t="n">
-        <v>1504.462921287734</v>
+        <v>1504.462921287735</v>
       </c>
       <c r="D32" t="n">
-        <v>1232.833941084894</v>
+        <v>1232.833941084895</v>
       </c>
       <c r="E32" t="n">
-        <v>933.6824068905607</v>
+        <v>933.6824068905617</v>
       </c>
       <c r="F32" t="n">
-        <v>609.3332205048641</v>
+        <v>609.333220504865</v>
       </c>
       <c r="G32" t="n">
         <v>280.8974887537718</v>
       </c>
       <c r="H32" t="n">
-        <v>69.95060676644984</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="I32" t="n">
-        <v>69.95060676644984</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="J32" t="n">
         <v>258.8297377254752</v>
       </c>
       <c r="K32" t="n">
-        <v>676.2224900867043</v>
+        <v>677.5617591229947</v>
       </c>
       <c r="L32" t="n">
-        <v>1127.256703335113</v>
+        <v>1128.595972371403</v>
       </c>
       <c r="M32" t="n">
-        <v>1660.788608007037</v>
+        <v>1662.127877043327</v>
       </c>
       <c r="N32" t="n">
-        <v>2207.567425065819</v>
+        <v>2292.480072773493</v>
       </c>
       <c r="O32" t="n">
-        <v>2710.539895945156</v>
+        <v>2795.45254365283</v>
       </c>
       <c r="P32" t="n">
-        <v>3105.314262302334</v>
+        <v>3190.226910010008</v>
       </c>
       <c r="Q32" t="n">
-        <v>3353.600624058016</v>
+        <v>3438.51327176569</v>
       </c>
       <c r="R32" t="n">
-        <v>3497.530338322492</v>
+        <v>3497.530338322493</v>
       </c>
       <c r="S32" t="n">
-        <v>3473.876388253498</v>
+        <v>3473.876388253499</v>
       </c>
       <c r="T32" t="n">
-        <v>3354.535359041631</v>
+        <v>3354.535359041632</v>
       </c>
       <c r="U32" t="n">
-        <v>3187.641600719378</v>
+        <v>3187.641600719379</v>
       </c>
       <c r="V32" t="n">
         <v>2943.215431779719</v>
       </c>
       <c r="W32" t="n">
-        <v>2677.083494913515</v>
+        <v>2677.083494913516</v>
       </c>
       <c r="X32" t="n">
-        <v>2390.254455056346</v>
+        <v>2390.254455056347</v>
       </c>
       <c r="Y32" t="n">
-        <v>2086.751841484445</v>
+        <v>2086.751841484446</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>944.9823448153751</v>
+        <v>944.9823448153745</v>
       </c>
       <c r="C33" t="n">
-        <v>770.5293155342481</v>
+        <v>770.5293155342475</v>
       </c>
       <c r="D33" t="n">
-        <v>621.5949058729968</v>
+        <v>621.5949058729963</v>
       </c>
       <c r="E33" t="n">
-        <v>462.3574508675413</v>
+        <v>462.3574508675408</v>
       </c>
       <c r="F33" t="n">
-        <v>315.8228928944263</v>
+        <v>315.8228928944258</v>
       </c>
       <c r="G33" t="n">
         <v>179.4597927270444</v>
       </c>
       <c r="H33" t="n">
-        <v>88.9578983649119</v>
+        <v>88.95789836491193</v>
       </c>
       <c r="I33" t="n">
-        <v>69.95060676644984</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="J33" t="n">
         <v>163.6278762570671</v>
@@ -6783,7 +6783,7 @@
         <v>401.8920752374142</v>
       </c>
       <c r="L33" t="n">
-        <v>768.5902355500795</v>
+        <v>768.5902355500796</v>
       </c>
       <c r="M33" t="n">
         <v>1215.866560772395</v>
@@ -6816,10 +6816,10 @@
         <v>1783.046837534131</v>
       </c>
       <c r="W33" t="n">
-        <v>1528.80948080593</v>
+        <v>1528.809480805929</v>
       </c>
       <c r="X33" t="n">
-        <v>1320.957980600397</v>
+        <v>1320.957980600396</v>
       </c>
       <c r="Y33" t="n">
         <v>1113.197681835443</v>
@@ -6847,34 +6847,34 @@
         <v>221.2861521437951</v>
       </c>
       <c r="G34" t="n">
-        <v>140.2200339224249</v>
+        <v>140.220033922425</v>
       </c>
       <c r="H34" t="n">
-        <v>80.63956554419362</v>
+        <v>80.63956554419363</v>
       </c>
       <c r="I34" t="n">
-        <v>69.95060676644984</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="J34" t="n">
-        <v>166.6860080115623</v>
+        <v>199.9858869210584</v>
       </c>
       <c r="K34" t="n">
-        <v>349.9095099869057</v>
+        <v>383.2093888964018</v>
       </c>
       <c r="L34" t="n">
-        <v>590.532001616936</v>
+        <v>623.8318805264321</v>
       </c>
       <c r="M34" t="n">
-        <v>842.8771306238068</v>
+        <v>876.1770095333029</v>
       </c>
       <c r="N34" t="n">
-        <v>1099.098615361327</v>
+        <v>1132.398494270823</v>
       </c>
       <c r="O34" t="n">
-        <v>1394.085687621965</v>
+        <v>1355.229491196686</v>
       </c>
       <c r="P34" t="n">
-        <v>1577.949338082396</v>
+        <v>1539.093141657118</v>
       </c>
       <c r="Q34" t="n">
         <v>1675.78275314861</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,13 +6920,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,10 +6935,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6947,7 +6947,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6968,19 +6968,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
         <v>183.0892706919199</v>
@@ -7090,31 +7090,31 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226759</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>155.2189959588259</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K37" t="n">
-        <v>253.5298502264962</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L37" t="n">
-        <v>505.9475671746773</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M37" t="n">
-        <v>770.087921499699</v>
+        <v>789.9116685363199</v>
       </c>
       <c r="N37" t="n">
-        <v>1038.10463155537</v>
+        <v>1057.928378591991</v>
       </c>
       <c r="O37" t="n">
-        <v>1272.730853799384</v>
+        <v>1281.395895681861</v>
       </c>
       <c r="P37" t="n">
-        <v>1371.681856552143</v>
+        <v>1380.346898434619</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R37" t="n">
         <v>1489.975538818984</v>
@@ -7129,16 +7129,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307336</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,25 +7172,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7202,10 +7202,10 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
@@ -7214,7 +7214,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7278,25 +7278,25 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404822</v>
@@ -7327,55 +7327,55 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226759</v>
+        <v>67.83109325226766</v>
       </c>
       <c r="J40" t="n">
-        <v>176.3617198155309</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K40" t="n">
-        <v>371.3804471090252</v>
+        <v>350.237723252319</v>
       </c>
       <c r="L40" t="n">
-        <v>527.0902910313823</v>
+        <v>602.6554402005002</v>
       </c>
       <c r="M40" t="n">
-        <v>791.230645356404</v>
+        <v>866.7957945255218</v>
       </c>
       <c r="N40" t="n">
-        <v>1059.247355412075</v>
+        <v>1134.812504581193</v>
       </c>
       <c r="O40" t="n">
-        <v>1293.873577656089</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P40" t="n">
-        <v>1477.054771460443</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307324</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495727</v>
@@ -7406,13 +7406,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218417</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7421,7 +7421,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7442,19 +7442,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7518,22 +7518,22 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7564,31 +7564,31 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226766</v>
       </c>
       <c r="J43" t="n">
-        <v>163.8840378413016</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K43" t="n">
-        <v>358.9027651347959</v>
+        <v>371.3804471090253</v>
       </c>
       <c r="L43" t="n">
-        <v>611.320482082977</v>
+        <v>623.7981640572066</v>
       </c>
       <c r="M43" t="n">
-        <v>778.7529633821748</v>
+        <v>791.2306453564044</v>
       </c>
       <c r="N43" t="n">
-        <v>1046.769673437846</v>
+        <v>962.5394823862518</v>
       </c>
       <c r="O43" t="n">
-        <v>1184.688022656036</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P43" t="n">
-        <v>1380.346898434618</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R43" t="n">
         <v>1489.975538818983</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218372</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7661,7 +7661,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
@@ -7670,28 +7670,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
         <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7737,40 +7737,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7798,31 +7798,31 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226766</v>
+        <v>67.83109325226765</v>
       </c>
       <c r="J46" t="n">
         <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
-        <v>371.3804471090253</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L46" t="n">
-        <v>623.7981640572066</v>
+        <v>430.3824180055586</v>
       </c>
       <c r="M46" t="n">
-        <v>791.2306453564044</v>
+        <v>694.5227723305802</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.247355412076</v>
+        <v>962.5394823862516</v>
       </c>
       <c r="O46" t="n">
-        <v>1272.730853799383</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P46" t="n">
-        <v>1468.389729577965</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q46" t="n">
         <v>1481.310496936506</v>
@@ -10030,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>7.541966202828959</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>7.541966202828149</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>72.88492458057962</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10282,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>72.8849245805805</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10519,13 +10519,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>72.8849245805805</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>39.2486832578571</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>289.1475203894593</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>342.7686726124498</v>
+        <v>11.41091062057501</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>370.0160010640286</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>282.6933953790873</v>
+        <v>282.6933953790872</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>192.0036011313869</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>315.8378894619018</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>374.3235696478204</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.9176111737042</v>
+        <v>167.9176111737041</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>136.7011040099791</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0530387456153</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>84.43805140160489</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>61.33074526862234</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>177.8546563232087</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.634580267936</v>
       </c>
       <c r="U13" t="n">
-        <v>274.2974691973798</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>274.6086293283579</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>370.8194726552474</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>394.9616767334782</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>29.66256076469283</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>173.2968582593026</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>239.0808029506688</v>
       </c>
       <c r="V14" t="n">
-        <v>315.8378894619018</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>337.3265997091799</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>374.3235696478205</v>
+        <v>225.5855255035032</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>167.9176111737041</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>134.5195936383361</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.506679014698</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>132.8406459060877</v>
+        <v>132.8406459060876</v>
       </c>
       <c r="I16" t="n">
-        <v>84.43805140160497</v>
+        <v>84.43805140160489</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.01778366181421</v>
+        <v>77.01778366181412</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>177.8546563232087</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6345802679361</v>
+        <v>62.30132096393754</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>199.4260935692779</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245782.9016151116</v>
+        <v>245782.9016151114</v>
       </c>
       <c r="C2" t="n">
         <v>245782.9016151115</v>
       </c>
       <c r="D2" t="n">
-        <v>245784.7671149364</v>
+        <v>245784.7671149363</v>
       </c>
       <c r="E2" t="n">
         <v>210911.1325995921</v>
       </c>
       <c r="F2" t="n">
-        <v>210911.1325995921</v>
+        <v>210911.1325995922</v>
       </c>
       <c r="G2" t="n">
-        <v>246312.5309592853</v>
+        <v>246312.5309592855</v>
       </c>
       <c r="H2" t="n">
+        <v>246312.5309592854</v>
+      </c>
+      <c r="I2" t="n">
         <v>246312.5309592852</v>
-      </c>
-      <c r="I2" t="n">
-        <v>246312.5309592853</v>
       </c>
       <c r="J2" t="n">
         <v>246312.5309592849</v>
       </c>
       <c r="K2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
       <c r="L2" t="n">
         <v>246312.5309592849</v>
       </c>
       <c r="M2" t="n">
+        <v>246312.5309592852</v>
+      </c>
+      <c r="N2" t="n">
         <v>246312.5309592854</v>
       </c>
-      <c r="N2" t="n">
-        <v>246312.5309592852</v>
-      </c>
       <c r="O2" t="n">
-        <v>246312.5309592852</v>
+        <v>246312.5309592854</v>
       </c>
       <c r="P2" t="n">
         <v>246312.5309592853</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>16642.08507315496</v>
+        <v>16642.08507315525</v>
       </c>
       <c r="E3" t="n">
-        <v>1117687.589588135</v>
+        <v>1117687.589588134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>68616.28097589746</v>
+        <v>68616.28097589745</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11245.75456273506</v>
+        <v>11245.75456273512</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68616.28097589742</v>
+        <v>68616.28097589743</v>
       </c>
       <c r="M3" t="n">
-        <v>206008.9941829029</v>
+        <v>206008.9941829027</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>460842.8736226515</v>
+        <v>460842.8736226514</v>
       </c>
       <c r="E4" t="n">
-        <v>27909.85740473176</v>
+        <v>27909.8574047319</v>
       </c>
       <c r="F4" t="n">
-        <v>27909.85740473176</v>
+        <v>27909.8574047319</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657702</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="J4" t="n">
-        <v>94100.04165292098</v>
+        <v>94100.04165292096</v>
       </c>
       <c r="K4" t="n">
-        <v>94100.04165292099</v>
+        <v>94100.04165292102</v>
       </c>
       <c r="L4" t="n">
-        <v>94100.04165292098</v>
+        <v>94100.04165292102</v>
       </c>
       <c r="M4" t="n">
+        <v>93774.13782657703</v>
+      </c>
+      <c r="N4" t="n">
         <v>93774.13782657706</v>
-      </c>
-      <c r="N4" t="n">
-        <v>93774.13782657703</v>
       </c>
       <c r="O4" t="n">
         <v>93774.13782657706</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657706</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34051.22391856599</v>
+        <v>34051.223918566</v>
       </c>
       <c r="E5" t="n">
-        <v>75307.96964954646</v>
+        <v>75307.96964954644</v>
       </c>
       <c r="F5" t="n">
-        <v>75307.96964954646</v>
+        <v>75307.96964954644</v>
       </c>
       <c r="G5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="H5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="I5" t="n">
         <v>82518.59730624984</v>
@@ -26500,16 +26500,16 @@
         <v>84130.22087213918</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-255460.6583166197</v>
+        <v>-255465.0718944879</v>
       </c>
       <c r="C6" t="n">
-        <v>-255460.6583166197</v>
+        <v>-255465.0718944879</v>
       </c>
       <c r="D6" t="n">
-        <v>-265751.4154994361</v>
+        <v>-265755.8135314726</v>
       </c>
       <c r="E6" t="n">
-        <v>-1009994.284042821</v>
+        <v>-1010289.295695818</v>
       </c>
       <c r="F6" t="n">
-        <v>107693.3055453139</v>
+        <v>107398.2938923164</v>
       </c>
       <c r="G6" t="n">
-        <v>1403.514850560954</v>
+        <v>1403.514850561143</v>
       </c>
       <c r="H6" t="n">
+        <v>70019.79582645849</v>
+      </c>
+      <c r="I6" t="n">
         <v>70019.79582645837</v>
       </c>
-      <c r="I6" t="n">
-        <v>70019.79582645866</v>
-      </c>
       <c r="J6" t="n">
-        <v>56836.5138714897</v>
+        <v>56836.51387148965</v>
       </c>
       <c r="K6" t="n">
         <v>68082.26843422474</v>
       </c>
       <c r="L6" t="n">
-        <v>-534.0125416726514</v>
+        <v>-534.0125416727242</v>
       </c>
       <c r="M6" t="n">
-        <v>-135989.1983564445</v>
+        <v>-135989.1983564444</v>
       </c>
       <c r="N6" t="n">
-        <v>70019.79582645834</v>
+        <v>70019.79582645842</v>
       </c>
       <c r="O6" t="n">
-        <v>70019.79582645827</v>
+        <v>70019.79582645853</v>
       </c>
       <c r="P6" t="n">
-        <v>70019.79582645844</v>
+        <v>70019.79582645837</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="F2" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J2" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="K2" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="L2" t="n">
         <v>85.77035121987177</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810502</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.43228984247684</v>
+        <v>19.43228984247718</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
         <v>874.382584580623</v>
       </c>
       <c r="K4" t="n">
-        <v>874.382584580623</v>
+        <v>874.3825845806232</v>
       </c>
       <c r="L4" t="n">
-        <v>874.382584580623</v>
+        <v>874.3825845806232</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
@@ -26829,7 +26829,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.77035121987177</v>
+        <v>85.7703512198718</v>
       </c>
       <c r="M2" t="n">
-        <v>11.91436900823318</v>
+        <v>11.91436900823317</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.43228984247684</v>
+        <v>19.43228984247718</v>
       </c>
       <c r="E3" t="n">
         <v>1070.344410750821</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>42.98112917833032</v>
+        <v>42.98112917833055</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>788.4203262239625</v>
+        <v>788.420326223962</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27874,31 +27874,31 @@
         <v>207.4641775939151</v>
       </c>
       <c r="J8" t="n">
-        <v>174.4155877024936</v>
+        <v>174.4155877024935</v>
       </c>
       <c r="K8" t="n">
-        <v>210.152724857845</v>
+        <v>210.1527248578448</v>
       </c>
       <c r="L8" t="n">
-        <v>223.4385312340409</v>
+        <v>223.4385312340406</v>
       </c>
       <c r="M8" t="n">
-        <v>216.6290872421358</v>
+        <v>216.6290872421356</v>
       </c>
       <c r="N8" t="n">
-        <v>215.4739598485799</v>
+        <v>215.4739598485796</v>
       </c>
       <c r="O8" t="n">
-        <v>216.9359110188863</v>
+        <v>216.935911018886</v>
       </c>
       <c r="P8" t="n">
-        <v>219.9992768820616</v>
+        <v>219.9992768820614</v>
       </c>
       <c r="Q8" t="n">
-        <v>213.869634840372</v>
+        <v>213.8696348403719</v>
       </c>
       <c r="R8" t="n">
-        <v>210.6783475555694</v>
+        <v>210.6783475555693</v>
       </c>
       <c r="S8" t="n">
         <v>207.2399155971581</v>
@@ -27950,37 +27950,37 @@
         <v>111.8317659135424</v>
       </c>
       <c r="I9" t="n">
-        <v>98.08329061072223</v>
+        <v>98.0832906107222</v>
       </c>
       <c r="J9" t="n">
-        <v>122.8886553883951</v>
+        <v>122.888655388395</v>
       </c>
       <c r="K9" t="n">
-        <v>131.0920180769017</v>
+        <v>131.0920180769016</v>
       </c>
       <c r="L9" t="n">
-        <v>129.4789504529703</v>
+        <v>129.4789504529701</v>
       </c>
       <c r="M9" t="n">
-        <v>131.5434359578684</v>
+        <v>131.5434359578683</v>
       </c>
       <c r="N9" t="n">
-        <v>120.4708125043801</v>
+        <v>120.47081250438</v>
       </c>
       <c r="O9" t="n">
-        <v>132.6514951323233</v>
+        <v>132.6514951323231</v>
       </c>
       <c r="P9" t="n">
-        <v>125.9928693467665</v>
+        <v>125.9928693467664</v>
       </c>
       <c r="Q9" t="n">
-        <v>134.6463272598381</v>
+        <v>134.646327259838</v>
       </c>
       <c r="R9" t="n">
         <v>143.0843766525479</v>
       </c>
       <c r="S9" t="n">
-        <v>170.9067961275842</v>
+        <v>170.9067961275841</v>
       </c>
       <c r="T9" t="n">
         <v>199.9962544083571</v>
@@ -28035,22 +28035,22 @@
         <v>124.5179637655446</v>
       </c>
       <c r="K10" t="n">
-        <v>124.9420341674722</v>
+        <v>124.9420341674721</v>
       </c>
       <c r="L10" t="n">
-        <v>129.6749112306831</v>
+        <v>129.674911230683</v>
       </c>
       <c r="M10" t="n">
-        <v>133.4328171647554</v>
+        <v>133.4328171647553</v>
       </c>
       <c r="N10" t="n">
-        <v>122.3231881550953</v>
+        <v>122.3231881550952</v>
       </c>
       <c r="O10" t="n">
         <v>133.5035344769111</v>
       </c>
       <c r="P10" t="n">
-        <v>133.4898534907163</v>
+        <v>133.4898534907162</v>
       </c>
       <c r="Q10" t="n">
         <v>148.5707258632318</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="C11" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="D11" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="E11" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="F11" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="G11" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="H11" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="I11" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="T11" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="U11" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="V11" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="W11" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="X11" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="C13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="D13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="E13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="F13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="G13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="H13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="I13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="J13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="K13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="L13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="M13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="N13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="O13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="P13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="R13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="S13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="T13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="U13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="V13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="W13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="X13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="C14" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="D14" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="E14" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="F14" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="G14" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="H14" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="I14" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="T14" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="U14" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="V14" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="W14" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="X14" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="C16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="D16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="E16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="F16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="G16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="H16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="I16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="J16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="K16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="L16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="M16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="N16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="O16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="P16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="R16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="S16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="T16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="U16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="V16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="W16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="X16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.91436900823312</v>
+        <v>11.91436900823323</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>76.32843350415827</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="M19" t="n">
-        <v>76.32843350416007</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68472022810495</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
-        <v>76.32843350415993</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810495</v>
+        <v>77.66073332242581</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68472022810495</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810495</v>
+        <v>86.41330088048355</v>
       </c>
       <c r="M25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>76.32843350416053</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810495</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="C26" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="D26" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="E26" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="F26" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="G26" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="H26" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29299,7 +29299,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>85.77035121987183</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -29308,40 +29308,40 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>84.41755421351763</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>84.41755421351789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="T26" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="U26" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="V26" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="W26" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="X26" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="Y26" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
     </row>
     <row r="27">
@@ -29369,7 +29369,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>5.258016244624741e-13</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="C28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="D28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="E28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="F28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="G28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="H28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="I28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="J28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="K28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="L28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="M28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="N28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="O28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="P28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="R28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="S28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="T28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="U28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="V28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="W28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="X28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
     </row>
     <row r="29">
@@ -29509,31 +29509,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="C29" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="D29" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="E29" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="F29" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="G29" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="H29" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="I29" t="n">
-        <v>85.77035121987183</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
-        <v>40.22413276657204</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29554,31 +29554,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>84.41755421351886</v>
       </c>
       <c r="S29" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="T29" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="U29" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="V29" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="W29" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="X29" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="Y29" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
     </row>
     <row r="30">
@@ -29594,7 +29594,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -29603,7 +29603,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="C31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="D31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="E31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="F31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="G31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="H31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="I31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="J31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="K31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="L31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="M31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="N31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="O31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="P31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="R31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="S31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="T31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="U31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="V31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="W31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="X31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987178</v>
       </c>
     </row>
     <row r="32">
@@ -29773,7 +29773,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>84.41755421351786</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,7 +29782,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>84.417554213519</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29794,7 +29794,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>85.77035121987177</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>85.77035121987177</v>
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -29885,7 +29885,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30013,7 +30013,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810495</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
-        <v>76.32843350416049</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810495</v>
+        <v>86.41330088048443</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810495</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,7 +30350,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810495</v>
+        <v>76.32843350415919</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>85.08100106221787</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30636,10 +30636,10 @@
         <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J43" t="n">
-        <v>86.41330088048355</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K43" t="n">
         <v>97.68472022810502</v>
@@ -30651,10 +30651,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>76.32843350415891</v>
       </c>
       <c r="P43" t="n">
         <v>97.68472022810502</v>
@@ -30663,7 +30663,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S43" t="n">
         <v>97.68472022810502</v>
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30879,25 +30879,25 @@
         <v>97.68472022810502</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
         <v>97.68472022810502</v>
-      </c>
-      <c r="L46" t="n">
-        <v>97.68472022810502</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="O46" t="n">
-        <v>76.32843350415868</v>
+        <v>76.32843350415914</v>
       </c>
       <c r="P46" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R46" t="n">
         <v>97.68472022810502</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07811975816071084</v>
+        <v>0.07811975816071223</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8000439732633802</v>
+        <v>0.8000439732633944</v>
       </c>
       <c r="I8" t="n">
-        <v>3.011711976490808</v>
+        <v>3.011711976490861</v>
       </c>
       <c r="J8" t="n">
-        <v>6.630316824192638</v>
+        <v>6.630316824192755</v>
       </c>
       <c r="K8" t="n">
-        <v>9.937126187135529</v>
+        <v>9.937126187135707</v>
       </c>
       <c r="L8" t="n">
-        <v>12.32788373594639</v>
+        <v>12.32788373594661</v>
       </c>
       <c r="M8" t="n">
-        <v>13.71714598513693</v>
+        <v>13.71714598513717</v>
       </c>
       <c r="N8" t="n">
-        <v>13.93910374801105</v>
+        <v>13.9391037480113</v>
       </c>
       <c r="O8" t="n">
-        <v>13.16230040280048</v>
+        <v>13.16230040280071</v>
       </c>
       <c r="P8" t="n">
-        <v>11.23371887320793</v>
+        <v>11.23371887320813</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.436055034077469</v>
+        <v>8.436055034077619</v>
       </c>
       <c r="R8" t="n">
-        <v>4.907190258562757</v>
+        <v>4.907190258562844</v>
       </c>
       <c r="S8" t="n">
-        <v>1.7801539890872</v>
+        <v>1.780153989087232</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3419692413485119</v>
+        <v>0.341969241348518</v>
       </c>
       <c r="U8" t="n">
-        <v>0.006249580652856866</v>
+        <v>0.006249580652856977</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0417977555102332</v>
+        <v>0.04179775551023394</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4036783229540944</v>
+        <v>0.4036783229541016</v>
       </c>
       <c r="I9" t="n">
-        <v>1.439089389277766</v>
+        <v>1.439089389277792</v>
       </c>
       <c r="J9" t="n">
-        <v>3.948971278271638</v>
+        <v>3.948971278271708</v>
       </c>
       <c r="K9" t="n">
-        <v>6.749420897457262</v>
+        <v>6.749420897457382</v>
       </c>
       <c r="L9" t="n">
-        <v>9.075429326903924</v>
+        <v>9.075429326904086</v>
       </c>
       <c r="M9" t="n">
-        <v>10.59059796414988</v>
+        <v>10.59059796415006</v>
       </c>
       <c r="N9" t="n">
-        <v>10.87089957895315</v>
+        <v>10.87089957895334</v>
       </c>
       <c r="O9" t="n">
-        <v>9.944749312121141</v>
+        <v>9.944749312121317</v>
       </c>
       <c r="P9" t="n">
-        <v>7.981538067563742</v>
+        <v>7.981538067563884</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.335446826183452</v>
+        <v>5.335446826183547</v>
       </c>
       <c r="R9" t="n">
-        <v>2.595127311416059</v>
+        <v>2.595127311416105</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7763749762536731</v>
+        <v>0.7763749762536869</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1684742864644925</v>
+        <v>0.1684742864644955</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002749852336199554</v>
+        <v>0.002749852336199603</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03504183414217135</v>
+        <v>0.03504183414217196</v>
       </c>
       <c r="H10" t="n">
-        <v>0.31155376173676</v>
+        <v>0.3115537617367655</v>
       </c>
       <c r="I10" t="n">
-        <v>1.053803521293662</v>
+        <v>1.053803521293681</v>
       </c>
       <c r="J10" t="n">
-        <v>2.477457673851514</v>
+        <v>2.477457673851558</v>
       </c>
       <c r="K10" t="n">
-        <v>4.071224003063179</v>
+        <v>4.071224003063251</v>
       </c>
       <c r="L10" t="n">
-        <v>5.209765050555184</v>
+        <v>5.209765050555276</v>
       </c>
       <c r="M10" t="n">
-        <v>5.49296678284964</v>
+        <v>5.492966782849737</v>
       </c>
       <c r="N10" t="n">
-        <v>5.362356310137915</v>
+        <v>5.36235631013801</v>
       </c>
       <c r="O10" t="n">
-        <v>4.953003974931638</v>
+        <v>4.953003974931726</v>
       </c>
       <c r="P10" t="n">
-        <v>4.238150558431339</v>
+        <v>4.238150558431415</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.934275766214002</v>
+        <v>2.934275766214054</v>
       </c>
       <c r="R10" t="n">
-        <v>1.575608287883449</v>
+        <v>1.575608287883477</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6106836004594768</v>
+        <v>0.6106836004594876</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1497242004256412</v>
+        <v>0.1497242004256438</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001911372771391166</v>
+        <v>0.0019113727713912</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026448</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.49278562129935</v>
+        <v>57.49278562129943</v>
       </c>
       <c r="K13" t="n">
         <v>217.9620285525527</v>
@@ -35574,19 +35574,19 @@
         <v>331.6717411784313</v>
       </c>
       <c r="M13" t="n">
-        <v>359.5477484017169</v>
+        <v>359.547748401717</v>
       </c>
       <c r="N13" t="n">
-        <v>356.7713151757732</v>
+        <v>356.7713151757733</v>
       </c>
       <c r="O13" t="n">
         <v>314.2674992308729</v>
       </c>
       <c r="P13" t="n">
-        <v>246.8714401533435</v>
+        <v>246.8714401533436</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.30860754612678</v>
+        <v>90.30860754612686</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.49278562129935</v>
+        <v>57.49278562129943</v>
       </c>
       <c r="K16" t="n">
         <v>217.9620285525527</v>
       </c>
       <c r="L16" t="n">
-        <v>331.6717411784312</v>
+        <v>331.6717411784313</v>
       </c>
       <c r="M16" t="n">
-        <v>359.5477484017169</v>
+        <v>359.547748401717</v>
       </c>
       <c r="N16" t="n">
-        <v>356.7713151757732</v>
+        <v>356.7713151757733</v>
       </c>
       <c r="O16" t="n">
         <v>314.2674992308729</v>
       </c>
       <c r="P16" t="n">
-        <v>246.8714401533435</v>
+        <v>246.8714401533436</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.30860754612678</v>
+        <v>90.30860754612686</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36036,34 +36036,34 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.332299818266854</v>
+        <v>1.332299818266939</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>88.27060879450113</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L19" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M19" t="n">
-        <v>245.4521519881983</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O19" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
         <v>197.6352280591743</v>
       </c>
       <c r="Q19" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R19" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057706</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36273,34 +36273,34 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.332299818266854</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>88.27060879450282</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K22" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L22" t="n">
-        <v>254.9673908567486</v>
+        <v>234.9434039510695</v>
       </c>
       <c r="M22" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N22" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P22" t="n">
         <v>197.6352280591743</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36510,34 +36510,34 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.33229981826684</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K25" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567486</v>
+        <v>243.6959715091272</v>
       </c>
       <c r="M25" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N25" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O25" t="n">
-        <v>215.6398973609178</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057606</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>422.9616377752722</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
@@ -36604,16 +36604,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>636.7193896264289</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>593.8233521080908</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>335.2118590172373</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597807</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>97.71252651021469</v>
+        <v>105.2544927130436</v>
       </c>
       <c r="K28" t="n">
         <v>185.0742444195388</v>
       </c>
       <c r="L28" t="n">
-        <v>250.5949880513436</v>
+        <v>243.0530218485154</v>
       </c>
       <c r="M28" t="n">
-        <v>254.89406970391</v>
+        <v>254.8940697039099</v>
       </c>
       <c r="N28" t="n">
-        <v>258.8095805429501</v>
+        <v>258.80958054295</v>
       </c>
       <c r="O28" t="n">
-        <v>225.0818150766291</v>
+        <v>225.081815076629</v>
       </c>
       <c r="P28" t="n">
-        <v>185.7208590509411</v>
+        <v>185.720859050941</v>
       </c>
       <c r="Q28" t="n">
         <v>164.1645897577654</v>
@@ -36826,10 +36826,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>44.19342144694585</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>231.0111337352845</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36850,10 +36850,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>336.5646560235913</v>
+        <v>336.5646560235912</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>144.0307527557436</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>97.71252651021469</v>
+        <v>97.71252651021464</v>
       </c>
       <c r="K31" t="n">
-        <v>257.9591690001184</v>
+        <v>185.0742444195388</v>
       </c>
       <c r="L31" t="n">
-        <v>243.0530218485155</v>
+        <v>243.0530218485154</v>
       </c>
       <c r="M31" t="n">
-        <v>254.89406970391</v>
+        <v>254.8940697039099</v>
       </c>
       <c r="N31" t="n">
-        <v>258.8095805429501</v>
+        <v>258.80958054295</v>
       </c>
       <c r="O31" t="n">
-        <v>225.0818150766291</v>
+        <v>297.9667396572095</v>
       </c>
       <c r="P31" t="n">
-        <v>185.7208590509411</v>
+        <v>185.720859050941</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.821631380014</v>
+        <v>98.82163138001395</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>421.6088407689182</v>
+        <v>422.9616377752722</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37078,7 +37078,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>636.7193896264303</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
@@ -37090,7 +37090,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>145.3835497620965</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>97.71252651021463</v>
+        <v>131.348767832938</v>
       </c>
       <c r="K34" t="n">
         <v>185.0742444195388</v>
@@ -37239,13 +37239,13 @@
         <v>258.80958054295</v>
       </c>
       <c r="O34" t="n">
-        <v>297.9667396572095</v>
+        <v>225.081815076629</v>
       </c>
       <c r="P34" t="n">
         <v>185.720859050941</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.82163138001394</v>
+        <v>138.070314637871</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923326</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302265</v>
@@ -37458,10 +37458,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.33229981826684</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>88.27060879450335</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K37" t="n">
         <v>99.30389319966699</v>
@@ -37476,7 +37476,7 @@
         <v>270.7239495511832</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848622</v>
+        <v>225.7247647372417</v>
       </c>
       <c r="P37" t="n">
         <v>99.95050783106927</v>
@@ -37485,7 +37485,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057606</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.33229981826684</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K40" t="n">
-        <v>196.988613427772</v>
+        <v>175.6323267038262</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M40" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848622</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>185.0315088932871</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37932,10 +37932,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J43" t="n">
-        <v>98.35547617082641</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K43" t="n">
         <v>196.988613427772</v>
@@ -37947,10 +37947,10 @@
         <v>169.1237184840381</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>215.6398973609162</v>
       </c>
       <c r="P43" t="n">
         <v>197.6352280591743</v>
@@ -37959,7 +37959,7 @@
         <v>110.7360003882472</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
@@ -38175,25 +38175,25 @@
         <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
         <v>270.7239495511833</v>
       </c>
       <c r="O46" t="n">
-        <v>215.6398973609159</v>
+        <v>215.6398973609164</v>
       </c>
       <c r="P46" t="n">
         <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
         <v>8.752567558057677</v>
